--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1558,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1605,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1651,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2066,10 +2078,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2113,28 +2125,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2159,28 +2171,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2309,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2344,28 +2356,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2402,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2557,10 +2569,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2604,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2650,28 +2662,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3106,10 +3118,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3153,28 +3165,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3199,28 +3211,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3366,10 +3378,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3413,28 +3425,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3459,28 +3471,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3597,10 +3609,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3644,28 +3656,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3690,28 +3702,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3828,10 +3840,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3875,28 +3887,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3921,28 +3933,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4030,10 +4042,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4077,28 +4089,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4123,28 +4135,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4232,10 +4244,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4279,28 +4291,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4325,28 +4337,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4405,10 +4417,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4452,28 +4464,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4498,28 +4510,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4607,10 +4619,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4654,28 +4666,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4700,28 +4712,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5069,10 +5081,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5116,28 +5128,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5162,28 +5174,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5300,10 +5312,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5347,28 +5359,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5393,28 +5405,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5502,10 +5514,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5549,28 +5561,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5595,28 +5607,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5704,10 +5716,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5751,28 +5763,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5797,28 +5809,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5877,10 +5889,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5924,28 +5936,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5970,28 +5982,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6137,10 +6149,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6184,28 +6196,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6230,28 +6242,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6339,10 +6351,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6386,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6432,28 +6444,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6541,10 +6553,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6588,28 +6600,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6634,28 +6646,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7003,10 +7015,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7050,28 +7062,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7096,28 +7108,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7176,10 +7188,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7223,28 +7235,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7269,28 +7281,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7378,10 +7390,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7425,28 +7437,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7471,28 +7483,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7592,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7627,28 +7639,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7685,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7782,10 +7794,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7829,28 +7841,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7875,28 +7887,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
